--- a/Classifiers.xlsx
+++ b/Classifiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyc0rpion\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4887741C-DA69-4B38-A7A4-802E20A70521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBD133A-3A63-4214-8330-43FB8C0576EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF49AE02-568E-44E8-B084-CF6521B8DAD2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="820">
   <si>
     <t>ABA routing number</t>
   </si>
@@ -10294,12 +10294,5779 @@
 Ð¿Ð°ÑÐ¿Ð¾ÑÑ Ð£ÐºÑÐ°ÑÐ½Ð¸
 Ð½Ð¾Ð¼ÐµÑ Ð¿Ð°ÑÐ¿Ð¾ÑÑÐ°</t>
   </si>
+  <si>
+    <t>Classifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_argentina_national_id
+Argentina National Identity number
+cedula
+cédula
+dni
+documento nacional de identidad
+documento número
+documento numero
+registro nacional de las personas
+rnp
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_austria_eu_driver's_license_number
+fuhrerschein
+führerschein
+Führerscheine
+Führerscheinnummer
+Führerscheinnummern
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_austria_eu_national_id_card
+identity number
+national id
+personalausweis republik österreich
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_austria_eu_passport_number
+reisepassnummer
+reisepasse
+No-Reisepass
+Nr-Reisepass
+Reisepass-Nr
+Passnummer
+reisepässe
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_austria_eu_tax_file_number
+österreich
+st.nr.
+steuernummer
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+tax number
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_belgium_eu_driver's_license_number
+rijbewijs
+rijbewijsnummer
+führerschein
+führerscheinnummer
+füehrerscheinnummer
+fuhrerschein
+fuehrerschein
+fuhrerscheinnummer
+fuehrerscheinnummer
+permis de conduire
+numéro permis conduire
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_belgium_national_number
+belasting aantal
+bnn#
+bnn
+carte d’identité
+identifiant national
+identifiantnational#
+identificatie
+identification
+identifikation
+identifikationsnummer
+identifizierung
+identité
+identiteit
+identiteitskaart
+identity
+inscription
+national number
+national register
+nationalnumber#
+nationalnumber
+nif#
+nif
+numéro d'assuré
+numéro de registre national
+numéro de sécurité
+numéro d'identification
+numéro d'immatriculation
+numéro national
+numéronational#
+personal id number
+personalausweis
+personalidnumber#
+registratie
+registration
+registrationsnumme
+registrierung
+social security number
+ssn#
+ssn
+steuernummer
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_belgium_eu_passport_number
+numéro passeport
+paspoort nr
+paspoort-nr
+paspoortnummer
+paspoortnummers
+Passeport carte
+Passeport livre
+Pass-Nr
+Passnummer
+reisepass kein
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_belgium_value_added_tax_number
+nº tva
+vat number
+vat no
+numéro t.v.a
+umsatzsteuer-identifikationsnummer
+umsatzsteuernummer
+btw
+btw#
+vat#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_brazil_cpf
+CPF
+Identification
+Registration
+Revenue
+Cadastro de Pessoas Físicas
+Imposto
+Identificação
+Inscrição
+Receita
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_brazil_cnpj
+CNPJ
+CNPJ/MF
+CNPJ-MF
+National Registry of Legal Entities
+Taxpayers Registry
+Legal entity
+Legal entities
+Registration Status
+Business
+Company
+CNPJ
+Cadastro Nacional da Pessoa Jurídica
+Cadastro Geral de Contribuintes
+CGC
+Pessoa jurídica
+Pessoas jurídicas
+Situação cadastral
+Inscrição
+Empresa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_brazil_rg
+Cédula de identidade
+identity card
+national id
+número de rregistro
+registro de Iidentidade
+registro geral
+RG (this keyword is case-sensitive)
+RIC (this keyword is case-sensitive)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_bulgaria_eu_driver's_license_number
+свидетелство за управление на мпс
+свидетелство за управление на моторно превозно средство
+сумпс
+шофьорска книжка
+шофьорски книжки
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_bulgaria_eu_national_id_card
+bnn#
+bnn
+bucn#
+bucn
+edinen grazhdanski nomer
+egn#
+egn
+identification number
+national id
+national number
+nationalnumber#
+nationalnumber
+personal id
+personal no
+personal number
+personalidnumber#
+social security number
+ssn#
+ssn
+uniform civil id
+uniform civil no
+uniform civil number
+uniformcivilno#
+uniformcivilno
+uniformcivilnumber#
+uniformcivilnumber
+unique citizenship number
+егн#
+егн
+единен граждански номер
+идентификационен номер
+личен номер
+лична идентификация
+лично не
+национален номер
+номер на гражданството
+униформ id
+униформ граждански id
+униформ граждански не
+униформ граждански номер
+униформгражданскиid#
+униформгражданскине.#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_bulgaria_eu_passport_number
+номер на паспорта
+номер на паспорт
+паспорт №
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_canada_passport_number
+canadian citizenship
+canadian passport
+passport application
+passport photos
+certified translator
+canadian citizens
+processing times
+renewal application
+Keyword_passport
+Passport Number
+Passport No
+Passport #
+Passport#
+PassportID
+Passportno
+passportnumber
+パスポート
+パスポート番号
+パスポートのNum
+パスポート＃
+Numéro de passeport
+Passeport n °
+Passeport Non
+Passeport #
+Passeport#
+PasseportNon
+Passeportn °
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_chile_id_card
+cédula de identidad
+identificación
+national identification
+national identification number
+national id
+número de identificación nacional
+rol único nacional
+rol único tributario
+RUN
+RUT
+tarjeta de identificación
+Rol Unico Nacional
+Rol Unico Tributario
+RUN#
+RUT#
+nationaluniqueroleID#
+nacional identidad
+número identificación
+identidad número
+numero identificacion
+identidad numero
+Chilean identity no.
+Chilean identity number
+Chilean identity #
+Unique Tax Registry
+Unique Tributary Role
+Unique Tax Role
+Unique Tributary Number
+Unique National Number
+Unique National Role
+National unique role
+Chile identity no.
+Chile identity number
+Chile identity #
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_cc_verification
+card verification
+card identification number
+cvn
+cid
+cvc2
+cvv2
+pin block
+security code
+security number
+security no
+issue number
+issue no
+cryptogramme
+numéro de sécurité
+numero de securite
+kreditkartenprüfnummer
+kreditkartenprufnummer
+prüfziffer
+prufziffer
+sicherheits Kode
+sicherheitscode
+sicherheitsnummer
+verfalldatum
+codice di verifica
+cod. sicurezza
+cod sicurezza
+n autorizzazione
+código
+codigo
+cod. seg
+cod seg
+código de segurança
+codigo de seguranca
+codigo de segurança
+código de seguranca
+cód. segurança
+cod. seguranca
+cod. segurança
+cód. seguranca
+cód segurança
+cod seguranca
+cod segurança
+cód seguranca
+número de verificação
+numero de verificacao
+ablauf
+gültig bis
+gültigkeitsdatum
+gultig bis
+gultigkeitsdatum
+scadenza
+data scad
+fecha de expiracion
+fecha de venc
+vencimiento
+válido hasta
+valido hasta
+vto
+data de expiração
+data de expiracao
+data em que expira
+validade
+valor
+vencimento
+transaction
+transaction number
+reference number
+セキュリティコード
+セキュリティ コード
+セキュリティナンバー
+セキュリティ ナンバー
+セキュリティ番号
+Keyword_cc_name
+amex
+american express
+americanexpress
+americano espresso
+Visa
+mastercard
+master card
+mc
+mastercards
+master cards
+diner's Club
+diners club
+dinersclub
+discover
+discover card
+discovercard
+discover cards
+JCB
+BrandSmart
+japanese card bureau
+carte blanche
+carteblanche
+credit card
+cc#
+cc#:
+expiration date
+exp date
+expiry date
+date d’expiration
+date d'exp
+date expiration
+bank card
+bankcard
+card number
+card num
+cardnumber
+cardnumbers
+card numbers
+creditcard
+credit cards
+creditcards
+ccn
+card holder
+cardholder
+card holders
+cardholders
+check card
+checkcard
+check cards
+checkcards
+debit card
+debitcard
+debit cards
+debitcards
+atm card
+atmcard
+atm cards
+atmcards
+enroute
+en route
+card type
+Cardmember Acct
+cardmember account
+Cardno
+Corporate Card
+Corporate cards
+Type of card
+card account number
+card member account
+Cardmember Acct.
+card no.
+card no
+card number
+carte bancaire
+carte de crédit
+carte de credit
+numéro de carte
+numero de carte
+nº de la carte
+nº de carte
+kreditkarte
+karte
+karteninhaber
+karteninhabers
+kreditkarteninhaber
+kreditkarteninstitut
+kreditkartentyp
+eigentümername
+kartennr
+kartennummer
+kreditkartennummer
+kreditkarten-nummer
+carta di credito
+carta credito
+n. carta
+n carta
+nr. carta
+nr carta
+numero carta
+numero della carta
+numero di carta
+tarjeta credito
+tarjeta de credito
+tarjeta crédito
+tarjeta de crédito
+tarjeta de atm
+tarjeta atm
+tarjeta debito
+tarjeta de debito
+tarjeta débito
+tarjeta de débito
+nº de tarjeta
+no. de tarjeta
+no de tarjeta
+numero de tarjeta
+número de tarjeta
+tarjeta no
+tarjetahabiente
+cartão de crédito
+cartão de credito
+cartao de crédito
+cartao de credito
+cartão de débito
+cartao de débito
+cartão de debito
+cartao de debito
+débito automático
+debito automatico
+número do cartão
+numero do cartão
+número do cartao
+numero do cartao
+número de cartão
+numero de cartão
+número de cartao
+numero de cartao
+nº do cartão
+nº do cartao
+nº. do cartão
+no do cartão
+no do cartao
+no. do cartão
+no. do cartao
+rupay
+union pay
+unionpay
+diner's
+diners
+クレジットカード番号
+クレジットカードナンバー
+クレジットカード＃
+クレジットカード
+クレジット
+クレカ
+カード番号
+カードナンバー
+カード＃
+アメックス
+アメリカンエクスプレス
+アメリカン エクスプレス
+Visaカード
+Visa カード
+マスターカード
+マスター カード
+マスター
+ダイナースクラブ
+ダイナース クラブ
+ダイナース
+有効期限
+期限
+キャッシュカード
+キャッシュ カード
+カード名義人
+カードの名義人
+カードの名義
+デビット カード
+デビットカード
+中国银联
+银联
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_croatia_eu_driver's_license_number
+vozačka dozvola
+vozačke dozvole
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_croatia_id_card
+majstorski broj građana
+master citizen number
+nacionalni identifikacijski broj
+national identification number
+oib#
+oib
+osobna iskaznica
+osobni id
+osobni identifikacijski broj
+personal identification number
+porezni broj
+porezni identifikacijski broj
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_croatia_oib_number
+majstorski broj građana
+master citizen number
+nacionalni identifikacijski broj
+national identification number
+oib#
+oib
+osobna iskaznica
+osobni id
+osobni identifikacijski broj
+personal identification number
+porezni broj
+porezni identifikacijski broj
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_cyprus_eu_driver's_license_number
+άδεια οδήγησης
+αριθμό άδειας οδήγησης
+άδειες οδήγησης
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_cyprus_eu_national_id_card
+id card number
+identity card number
+kimlik karti
+national identification number
+personal id number
+ταυτοτητασ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number_common
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_cyprus_eu_passport_number
+αριθμό διαβατηρίου
+pasaportu
+Αριθμός Διαβατηρίου
+κυπριακό διαβατήριο
+διαβατήριο#
+διαβατήριο
+αριθμός διαβατηρίου
+Pasaport Kimliği
+pasaport numarası
+Pasaport no.
+Αρ. Διαβατηρίου
+Keywords_cyprus_eu_passport_date
+expires on
+issued on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_cyprus_eu_tax_file_number
+tax id
+tax identification code
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tic#
+tic
+tin id
+tin no
+tin#
+vergi kimlik kodu
+vergi kimlik numarası
+αριθμός φορολογικού μητρώου
+κωδικός φορολογικού μητρώου
+φορολογική ταυτότητα
+φορολογικού κωδικού
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_czech_republic_eu_driver's_license_number
+řidičský prúkaz
+řidičské průkazy
+číslo řidičského průkazu
+čísla řidičských průkazů
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number_common
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_czech_republic_eu_passport_number
+cestovní pas
+číslo pasu
+cestovní pasu
+passeport no
+čísla pasu
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_czech_id_card
+birth number
+czech republic id
+czechidno#
+daňové číslo
+identifikační číslo
+identity no
+identity number
+identityno#
+identityno
+insurance number
+national identification number
+nationalnumber#
+national number
+osobní číslo
+personalidnumber#
+personal id number
+personal identification number
+personal number
+pid#
+pid
+pojištění číslo
+rč
+rodne cislo
+rodné číslo
+ssn
+ssn#
+social security number
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+unique identification number
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_denmark_eu_driver's_license_number
+kørekort
+kørekortnummer
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number_common
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_denmark_eu_passport_number
+pasnummer
+Passeport n°
+pasnumre
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_eu_debit_card
+account number
+card number
+card no.
+security number
+cc#
+Keyword_card_terms_dict
+acct nbr
+acct num
+acct no
+american express
+americanexpress
+americano espresso
+amex
+atm card
+atm cards
+atm kaart
+atmcard
+atmcards
+atmkaart
+atmkaarten
+bancontact
+bank card
+bankkaart
+card holder
+card holders
+card num
+card number
+card numbers
+card type
+cardano numerico
+cardholder
+cardholders
+cardnumber
+cardnumbers
+carta bianca
+carta credito
+carta di credito
+cartao de credito
+cartao de crédito
+cartao de debito
+cartao de débito
+carte bancaire
+carte blanche
+carte bleue
+carte de credit
+carte de crédit
+carte di credito
+carteblanche
+cartão de credito
+cartão de crédito
+cartão de debito
+cartão de débito
+cb
+ccn
+check card
+check cards
+checkcard
+checkcards
+chequekaart
+cirrus
+cirrus-edc-maestro
+controlekaart
+controlekaarten
+credit card
+credit cards
+creditcard
+creditcards
+debetkaart
+debetkaarten
+debit card
+debit cards
+debitcard
+debitcards
+debito automatico
+diners club
+dinersclub
+discover
+discover card
+discover cards
+discovercard
+discovercards
+débito automático
+edc
+eigentümername
+european debit card
+hoofdkaart
+hoofdkaarten
+in viaggio
+japanese card bureau
+japanse kaartdienst
+jcb
+kaart
+kaart num
+kaartaantal
+kaartaantallen
+kaarthouder
+kaarthouders
+karte
+karteninhaber
+karteninhabers
+kartennr
+kartennummer
+kreditkarte
+kreditkarten-nummer
+kreditkarteninhaber
+kreditkarteninstitut
+kreditkartennummer
+kreditkartentyp
+maestro
+master card
+master cards
+mastercard
+mastercards
+mc
+mister cash
+n carta
+carta
+no de tarjeta
+no do cartao
+no do cartão
+no. de tarjeta
+no. do cartao
+no. do cartão
+nr carta
+nr. carta
+numeri di scheda
+numero carta
+numero de cartao
+numero de carte
+numero de cartão
+numero de tarjeta
+numero della carta
+numero di carta
+numero di scheda
+numero do cartao
+numero do cartão
+numéro de carte
+nº carta
+nº de carte
+nº de la carte
+nº de tarjeta
+nº do cartao
+nº do cartão
+nº. do cartão
+número de cartao
+número de cartão
+número de tarjeta
+número do cartao
+scheda dell'assegno
+scheda dell'atmosfera
+scheda dell'atmosfera
+scheda della banca
+scheda di controllo
+scheda di debito
+scheda matrice
+schede dell'atmosfera
+schede di controllo
+schede di debito
+schede matrici
+scoprono la scheda
+scoprono le schede
+solo
+supporti di scheda
+supporto di scheda
+switch
+tarjeta atm
+tarjeta credito
+tarjeta de atm
+tarjeta de credito
+tarjeta de debito
+tarjeta debito
+tarjeta no
+tarjetahabiente
+tipo della scheda
+ufficio giapponese della
+scheda
+v pay
+v-pay
+visa
+visa plus
+visa electron
+visto
+visum
+vpay
+Keyword_card_security_terms_dict
+card identification number
+card verification
+cardi la verifica
+cid
+cod seg
+cod seguranca
+cod segurança
+cod sicurezza
+cod. seg
+cod. seguranca
+cod. segurança
+cod. sicurezza
+codice di sicurezza
+codice di verifica
+codigo
+codigo de seguranca
+codigo de segurança
+crittogramma
+cryptogram
+cryptogramme
+cv2
+cvc
+cvc2
+cvn
+cvv
+cvv2
+cód seguranca
+cód segurança
+cód. seguranca
+cód. segurança
+código
+código de seguranca
+código de segurança
+de kaart controle
+geeft nr uit
+issue no
+issue number
+kaartidentificatienummer
+kreditkartenprufnummer
+kreditkartenprüfnummer
+kwestieaantal
+no. dell'edizione
+no. di sicurezza
+numero de securite
+numero de verificacao
+numero dell'edizione
+numero di identificazione della
+scheda
+numero di sicurezza
+numero van veiligheid
+numéro de sécurité
+nº autorizzazione
+número de verificação
+perno il blocco
+pin block
+prufziffer
+prüfziffer
+security code
+security no
+security number
+sicherheits kode
+sicherheitscode
+sicherheitsnummer
+speldblok
+veiligheid nr
+veiligheidsaantal
+veiligheidscode
+veiligheidsnummer
+verfalldatum
+Keyword_card_expiration_terms_dict
+ablauf
+data de expiracao
+data de expiração
+data del exp
+data di exp
+data di scadenza
+data em que expira
+data scad
+data scadenza
+date de validité
+datum afloop
+datum van exp
+de afloop
+espira
+espira
+exp date
+exp datum
+expiration
+expire
+expires
+expiry
+fecha de expiracion
+fecha de venc
+gultig bis
+gultigkeitsdatum
+gültig bis
+gültigkeitsdatum
+la scadenza
+scadenza
+valable
+validade
+valido hasta
+valor
+venc
+vencimento
+vencimiento
+verloopt
+vervaldag
+vervaldatum
+vto
+válido hasta
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_finland_eu_driver's_license_number
+ajokortti
+permis de conduire
+ajokortin numero
+kuljettaja lic.
+körkort
+körkortnummer
+förare lic.
+ajokortit
+ajokortin numerot
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_finland_european_health_insurance_number
+ehic#
+ehic
+finlandehicnumber#
+finska sjukförsäkringskort
+health card
+health insurance card
+health insurance number
+hälsokort
+sairaanhoitokortin
+sairausvakuutuskortti
+sairausvakuutusnumero
+sjukförsäkring nummer
+sjukförsäkringskort
+suomen sairausvakuutuskortti
+terveyskortti
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ainutlaatuinen henkilökohtainen tunnus
+henkilökohtainen tunnus
+henkilötunnus
+henkilötunnusnumero#
+henkilötunnusnumero
+hetu
+id no
+id number
+identification number
+identiteetti numero
+identity number
+idnumber
+kansallinen henkilötunnus
+kansallisen henkilökortin
+national id card
+national id no.
+personal id
+personal identity code
+personalidnumber#
+personbeteckning
+personnummer
+social security number
+sosiaaliturvatunnus
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+tunnistenumero
+tunnus numero
+tunnusluku
+tunnusnumero
+verokortti
+veronumero
+verotunniste
+verotunnus
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_french_drivers_license
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+permis de conduire
+licence number
+license number
+licence numbers
+license numbers
+numéros de licence
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_France_health_insurance_number
+insurance card
+carte vitale
+carte d'assuré social
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_france_eu_national_id_card
+card number
+carte nationale d’identité
+carte nationale d'idenite no
+cni#
+cni
+compte bancaire
+national identification number
+national identity
+nationalidno#
+numéro d'assurance maladie
+numéro de carte vitale
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_france_eu_passport_number
+numéro de passeport
+passeport n °
+passeport non
+passeport #
+passeport#
+passeportnon
+passeportn °
+passeport français
+passeport livre
+passeport carte
+numéro passeport
+passeport n°
+n° du passeport
+n° passeport
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_fr_insee
+code sécu
+d'identité nationale
+insee
+fssn#
+le numéro d'identification nationale
+le code de la sécurité sociale
+national id
+national identification
+no d'identité
+no. d'identité
+numéro d'assurance
+numéro d'identité
+numero d'identite
+numéro de sécu
+numéro de sécurité sociale
+no d'identite
+no. d'identite
+ssn
+ssn#
+sécurité sociale
+securité sociale
+securite sociale
+socialsecuritynumber
+social security number
+social security code
+social insurance number
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_france_eu_tax_file_number
+numéro d'identification fiscale
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_France_value_added_tax_number
+vat number
+vat no
+vat#
+value added tax
+siren identification no numéro d'identification taxe sur valeur ajoutée
+taxe valeur ajoutée
+taxe sur la valeur ajoutée
+n° tva
+numéro de tva
+numéro d'identification siren
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_german_drivers_license_number
+ausstellungsdatum
+ausstellungsort
+ausstellende behöde
+ausstellende behorde
+ausstellende behoerde
+führerschein
+fuhrerschein
+fuehrerschein
+führerscheinnummer
+fuhrerscheinnummer
+fuehrerscheinnummer
+führerschein-
+fuhrerschein-
+fuehrerschein-
+führerscheinnummernr
+fuhrerscheinnummernr
+fuehrerscheinnummernr
+führerscheinnummerklasse
+fuhrerscheinnummerklasse
+fuehrerscheinnummerklasse
+nr-führerschein
+nr-fuhrerschein
+nr-fuehrerschein
+no-führerschein
+no-fuhrerschein
+no-fuehrerschein
+n-führerschein
+n-fuhrerschein
+n-fuehrerschein
+permis de conduire
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dlno
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_germany_id_card
+ausweis
+gpid
+identification
+identifikation
+identifizierungsnummer
+identity card
+identity number
+id-nummer
+personal id
+personalausweis
+persönliche id nummer
+persönliche identifikationsnummer
+persönliche-id-nummer
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_german_passport
+reisepasse
+reisepassnummer
+No-Reisepass
+Nr-Reisepass
+Reisepass-Nr
+Passnummer
+reisepässe
+passeport no.
+passeport no
+Keywords_eu_passport_number_common
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_greece_eu_driver's_license_number
+δεια οδήγησης
+Adeia odigisis
+Άδεια οδήγησης
+Δίπλωμα οδήγησης
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_greece_id_card
+greek id
+greek national id
+greek personal id card
+greek police id
+identity card
+tautotita
+ταυτότητα
+ταυτότητας
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_greece_eu_passport_number
+αριθμός διαβατηρίου
+αριθμούς διαβατηρίου
+αριθμός διαβατηριο
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_greece_eu_ssn_or_equivalent
+ssn
+ssn#
+social security no
+socialsecurityno#
+social security number
+amka
+a.m.k.a.
+Αριθμού Μητρώου Κοινωνικής Ασφάλισης
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_greece_eu_tax_file_number
+afm#
+afm
+aφμ|aφμ αριθμός
+aφμ
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+tax registry no
+tax registry number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+taxregistryno#
+tin id
+tin no
+tin#
+αριθμός φορολογικού μητρώου
+τον αριθμό φορολογικού μητρώου
+φορολογικού μητρώου νο
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_hong_kong_id_card
+hkid
+hong kong identity card
+HKIDC
+id card
+identity card
+hk identity card
+hong kong id
+香港身份證
+香港永久性居民身份證
+身份證
+身份証
+身分證
+身分証
+香港身份証
+香港身分證
+香港身分証
+香港身份證
+香港居民身份證
+香港居民身份証
+香港居民身分證
+香港居民身分証
+香港永久性居民身份証
+香港永久性居民身分證
+香港永久性居民身分証
+香港永久性居民身份證
+香港非永久性居民身份證
+香港非永久性居民身份証
+香港非永久性居民身分證
+香港非永久性居民身分証
+香港特別行政區永久性居民身份證
+香港特別行政區永久性居民身份証
+香港特別行政區永久性居民身分證
+香港特別行政區永久性居民身分証
+香港特別行政區非永久性居民身份證
+香港特別行政區非永久性居民身份証
+香港特別行政區非永久性居民身分證
+香港特別行政區非永久性居民身分証
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_hungary_eu_driver's_license_number
+vezetoi engedely
+vezetői engedély
+vezetői engedélyek
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_hungary_eu_national_id_card
+id number
+identification number
+sz ig
+sz. ig.
+sz.ig.
+személyazonosító igazolvány
+személyi igazolvány
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_hungary_eu_passport_number
+útlevél száma
+Útlevelek száma
+útlevél szám
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_hungary_eu_ssn_or_equivalent
+hungarian social security number
+social security number
+socialsecuritynumber#
+hssn#
+socialsecuritynno
+hssn
+taj
+taj#
+ssn
+ssn#
+social security no
+áfa
+közösségi adószám
+általános forgalmi adó szám
+hozzáadottérték adó
+áfa szám
+magyar áfa szám
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_hungary_eu_tax_file_number
+adóazonosító szám
+adóhatóság szám
+adószám
+hungarian tin
+hungatiantin#
+tax authority no
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+vat number
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_Hungary_value_added_tax_number
+vat
+value added tax number
+vat#
+vatno#
+hungarianvatno#
+tax no.
+value added tax áfa
+közösségi adószám
+általános forgalmi adó szám
+hozzáadottérték adó
+áfa szám
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_india_aadhar
+aadhaar
+aadhar
+aadhar#
+uid
+आधार
+uidai
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_ipaddress
+IP (this keyword is case-sensitive)
+ip address
+ip addresses
+internet protocol
+IP-כתובת ה
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_ipaddress
+IP (case sensitive)
+ip address
+ip addresses
+internet protocol
+IP-כתובת ה
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_ireland_eu_driver's_license_number
+ceadúnas tiomána
+ceadúnais tiomána
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number_common
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_ireland_eu_passport_number
+passeport numero
+uimhreacha pasanna
+uimhir pas
+uimhir phas
+uimhreacha pas
+uimhir cárta
+uimhir chárta
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t>Old format (until 31 December 2012):
+seven digits
+one to two letters (not case-sensitive)
+New format (1 January 2013 and after):
+seven digits
+a letter (not case-sensitive) which is an alphabetic check digit
+An optional letter in the range A-I, or “W”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_ireland_eu_national_id_card
+client identity service
+identification number
+personal id number
+personal public service number
+personal service no
+phearsanta seirbhíse poiblí
+pps no
+pps number
+pps num
+pps service no
+ppsn
+ppsno#
+ppsno
+psp
+public service no
+publicserviceno#
+publicserviceno
+revenue and social insurance number
+rsi no
+rsi number
+rsin
+seirbhís aitheantais cliant
+uimh
+uimhir aitheantais chánach
+uimhir aitheantais phearsanta
+uimhir phearsanta seirbhíse poiblí
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_israel_bank_account_number
+Bank Account Number
+Bank Account
+Account Number
+מספר חשבון בנק
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_Israel_National_ID
+מספר זהות
+מספר זיה וי
+מספר זיהוי ישר אלי
+זהותישר אלית
+هو ية اسرائيل ية عدد
+هوية إسرائ يلية
+رقم الهوية
+عدد هوية فريدة من نوعها
+idnumber#
+id number
+identity no
+identitynumber#
+identity number
+israeliidentitynumber
+personal id
+unique id
+</t>
+  </si>
+  <si>
+    <t>A 16-character combination of letters and digits:
+three letters that correspond to the first three consonants in the family name
+three letters that correspond to the first, third, and fourth consonants in the first name
+two digits that correspond to the last digits of the birth year
+one letter that corresponds to the letter for the month of birth—letters are used in alphabetical order, but only the letters A to E, H, L, M, P, R to T are used (so, January is A and October is R)
+two digits that correspond to the day of the month of birth in order to differentiate between genders, 40 is added to the day of birth for women
+four digits that correspond to the area code specific to the municipality where the person was born (country-wide codes are used for foreign countries/regions)
+one parity digit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number_common
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_italy_eu_passport_number
+italiana passaporto
+passaporto italiana
+passaporto numero
+numéro passeport
+numero di passaporto
+numeri del passaporto
+passeport italien
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_jp_bank_account
+Checking Account Number
+Checking Account
+Checking Account #
+Checking Acct Number
+Checking Acct #
+Checking Acct No.
+Checking Account No.
+Bank Account Number
+Bank Account
+Bank Account #
+Bank Acct Number
+Bank Acct #
+Bank Acct No.
+Bank Account No.
+Savings Account Number
+Savings Account
+Savings Account #
+Savings Acct Number
+Savings Acct #
+Savings Acct No.
+Savings Account No.
+Debit Account Number
+Debit Account
+Debit Account #
+Debit Acct Number
+Debit Acct #
+Debit Acct No.
+Debit Account No.
+口座番号
+銀行口座
+銀行口座番号
+総合口座
+普通預金口座
+普通口座
+当座預金口座
+当座口座
+預金口座
+振替口座
+銀行
+バンク
+Keyword_jp_bank_branch_code
+支店番号
+支店コード
+店番号
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_jp_drivers_license_number
+driverlicense
+driverslicense
+driver'slicense
+driverslicenses
+driver'slicenses
+driverlicenses
+dl#
+dls#
+lic#
+lics#
+運転免許証
+運転免許
+免許証
+免許
+運転免許証番号
+運転免許番号
+免許証番号
+免許番号
+運転免許証ナンバー
+運転免許ナンバー
+免許証ナンバー
+運転免許証no
+運転免許no
+免許証no
+免許no
+運転経歴証明書番号
+運転経歴証明書
+運転免許証No.
+運転免許No.
+免許証No.
+免許No.
+運転免許証#
+運転免許#
+免許証#
+免許#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_japan_my_number_corporate
+corporate number
+マイナンバー
+共通番号
+マイナンバーカード
+マイナンバーカード番号
+個人番号カード
+個人識別番号
+個人識別ナンバー
+法人番号
+指定通知書
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_japan_my_number_personal
+my number
+マイナンバー
+個人番号
+共通番号
+マイナンバーカード
+マイナンバーカード番号
+個人番号カード
+個人識別番号
+個人識別ナンバー
+通知カード
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_jp_passport
+Passport
+Passport Number
+Passport No.
+Passport #
+パスポート
+パスポート番号
+パスポートナンバー
+パスポート＃
+パスポート#
+パスポートNo.
+旅券番号
+旅券番号＃
+旅券番号♯
+旅券ナンバー
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_jp_residence_card_number
+Residence card number
+Residence card no
+Residence card #
+在留カード番号
+在留カード
+在留番号
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_jp_resident_registration_number
+Resident Registration Number
+Residents Basic Registry Number
+Resident Registration No.
+Resident Register No.
+Residents Basic Registry No.
+Basic Resident Register No.
+外国人登録証明書番号
+証明書番号
+登録番号
+外国人登録証
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_jp_sin
+Social Insurance No.
+Social Insurance Num
+Social Insurance Number
+健康保険被保険者番号
+健保番号
+基礎年金番号
+雇用保険被保険者番号
+雇用保険番号
+保険証番号
+社会保険番号
+社会保険No.
+社会保険
+介護保険
+介護保険被保険者番号
+健康保険被保険者整理番号
+雇用保険被保険者整理番号
+厚生年金
+厚生年金被保険者整理番号
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_latvia_eu_driver's_license_number
+autovadītāja apliecība
+autovadītāja apliecības
+vadītāja apliecība
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_latvia_eu_national_id_card
+administrative number
+alvas nē
+birth number
+citizen number
+civil number
+electronic census number
+electronic number
+fiscal code
+healthcare user number
+id#
+id-code
+identification number
+identifikācijas numurs
+id-number
+individual number
+latvija alva
+nacionālais id
+national id
+national identifying number
+national identity number
+national insurance number
+national register number
+nodokļa numurs
+nodokļu id
+nodokļu identifikācija numurs
+personal certificate number
+personal code
+personal id code
+personal id number
+personal identification code
+personal identifier
+personal identity number
+personal number
+personal numeric code
+personalcodeno#
+personas kods
+population identification code
+public service number
+registration number
+revenue number
+social insurance number
+social security number
+state tax code
+tax file number
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+voter’s number
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number_common
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_latvia_eu_passport_number
+pase numurs
+pase numur
+pases numuri
+pases nr
+passeport no
+n° du Passeport
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_lithuania_eu_driver's_license_number
+vairuotojo pažymėjimas
+vairuotojo pažymėjimo numeris
+vairuotojo pažymėjimo numeriai
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_lithuania_eu_national_id_card
+asmeninis skaitmeninis kodas
+asmens kodas
+citizen service number
+mokesčių id
+mokesčių identifikavimas numeris
+mokesčių identifikavimo numeris
+mokesčių numeris
+national identification number
+personal code
+personal numeric code
+piliečio paslaugos numeris
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+unikalus identifikavimo kodas
+unikalus identifikavimo numeris
+unique identification number
+unique identity number
+uniqueidentityno#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_luxemburg_eu_driver's_license_number
+fahrerlaubnis
+Führerschäin
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_luxemburg_eu_national_id_card
+eindeutige id
+eindeutige id-nummer
+eindeutigeid#
+id personnelle
+idpersonnelle#
+idpersonnelle
+individual code
+individual id
+individual identification
+individual identity
+numéro d'identification personnel
+personal id
+personal identification
+personal identity
+personalidno#
+personalidnumber#
+persönliche identifikationsnummer
+unique id
+unique identity
+uniqueidkey#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_luxemburg_eu_tax_file_number
+carte de sécurité sociale
+étain non
+étain#
+identifiant d'impôt
+luxembourg tax identifikatiounsnummer
+numéro d'étain
+numéro d'identification fiscal luxembourgeois
+numéro d'identification fiscale
+social security
+sozialunterstützung
+sozialversécherung
+sozialversicherungsausweis
+steier id
+steier identifikatiounsnummer
+steier nummer
+steuer id
+steueridentifikationsnummer
+steuernummer
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+zinn#
+zinn
+zinnzahl
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_luxemburg_eu_passport_number
+ausweisnummer
+luxembourg pass
+luxembourg passeport
+luxembourg passport
+no de passeport
+no-reisepass
+nr-reisepass
+numéro de passeport
+pass net
+pass nr
+passnummer
+passeport nombre
+reisepässe
+reisepass-nr
+reisepassnummer
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_malta_eu_driver's_license_number
+liċenzja tas-sewqan
+liċenzji tas-sewwieq
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_malta_eu_national_id_card
+citizen service number
+id tat-taxxa
+identifika numru tal-biljett
+kodiċi numerali personali
+numru ta 'identifikazzjoni personali
+numru ta 'identifikazzjoni tat-taxxa
+numru ta 'identifikazzjoni uniku
+numru ta' identità uniku
+numru tas-servizz taċ-ċittadin
+numru tat-taxxa
+personal numeric code
+unique identification number
+unique identity number
+uniqueidentityno#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_malta_eu_tax_file_number
+citizen service number
+id tat-taxxa
+identifika numru tal-biljett
+kodiċi numerali personali
+numru ta 'identifikazzjoni personali
+numru ta 'identifikazzjoni tat-taxxa
+numru ta 'identifikazzjoni uniku
+numru ta' identità uniku
+numru tas-servizz taċ-ċittadin
+numru tat-taxxa
+personal numeric code
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+unique identification number
+unique identity number
+uniqueidentityno#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_netherlands_eu_tax_file_number
+btw nummer
+hollânske tax identification
+hulandes impuesto id number
+hulandes impuesto identification
+identificatienummer belasting
+identificatienummer van belasting
+impuesto identification number
+impuesto number
+nederlands belasting id nummer
+nederlands belasting identificatie
+nederlands belasting identificatienummer
+nederlands belastingnummer
+nederlandse belasting identificatie
+netherlands tax identification
+netherland's tax identification
+netherlands tin
+netherland's tin
+tax id
+tax identification no
+tax identification number
+tax identification tal
+tax no#
+tax no
+tax number
+tax registration number
+tax tal
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_netherlands_value_added_tax_number
+vat number
+vat no
+vat#
+wearde tafoege tax getal
+btw nûmer
+btw-nummer
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_norway_id_number
+Personal identification number
+Norwegian ID Number
+ID Number
+Identification
+Personnummer
+Fødselsnummer
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_poland_national_id_passport_number
+Dowód osobisty
+Numer dowodu osobistego
+Nazwa i numer dowodu osobistego
+Nazwa i nr dowodu osobistego
+Nazwa i nr dowodu tożsamości
+Dowód Tożsamości
+dow. os.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_pesel_identification_number
+dowód osobisty
+dowódosobisty
+niepowtarzalny numer
+niepowtarzalnynumer
+nr.-pesel
+nr-pesel
+numer identyfikacyjny
+pesel
+tożsamości narodowej
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keyword_polish_national_passport_number
+numer paszportu
+numery paszportów
+numery paszportowe
+nr paszportu
+nr. paszportu
+nr paszportów
+n° passeport
+passeport n°
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_portugal_citizen_card
+bilhete de identidade
+cartão de cidadão
+citizen card
+document number
+documento de identificação
+id number
+identification no
+identification number
+identity card no
+identity card number
+national id card
+nic
+número bi de portugal
+número de identificação civil
+número de identificação fiscal
+número do documento
+portugal bi number
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_portugal_eu_driver's_license_number
+carteira de motorista
+carteira motorista
+carteira de habilitação
+carteira habilitação
+número de licença
+número licença
+permissão de condução
+permissão condução
+Licença condução Portugal
+carta de condução
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_portugal_eu_passport_number
+número do passaporte
+portuguese passport
+portuguese passeport
+portuguese passaporte
+passaporte nº
+passeport nº
+números de passaporte
+portuguese passports
+número passaporte
+números passaporte
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_portugal_eu_tax_file_number
+cpf#
+cpf
+nif#
+nif
+número de identificação fisca
+numero fiscal
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_romania_eu_national_id_card
+cnp#
+cnp
+cod identificare personal
+cod numeric personal
+cod unic identificare
+codnumericpersonal#
+codul fiscal nr.
+identificarea fiscală nr#
+id-ul taxei
+insurance number
+insurancenumber#
+national id#
+national id
+national identification number
+număr identificare personal
+număr identitate
+număr personal unic
+număridentitate#
+număridentitate
+numărpersonalunic#
+numărpersonalunic
+număru de identificare fiscală
+numărul de identificare fiscală
+personal numeric code
+pin#
+pin
+tax file no
+tax file number
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+unique identification number
+unique identity number
+uniqueidentityno#
+uniqueidentityno
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_romania_eu_passport_number
+numărul pașaportului
+numarul pasaportului
+numerele pașaportului
+Pașaport nr
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_russia_passport_number_domestic
+passport number
+passport no
+passport #
+passport id
+passportno#
+passportnumber#
+паспорт нет
+паспорт id
+pоссийской паспорт
+pусский номер паспорта
+паспорт#
+паспортid#
+номер паспорта
+номерпаспорта#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_russia_passport_number_international
+passport number
+passport no
+passport #
+passport id
+passportno#
+passportnumber#
+паспорт нет
+паспорт id
+pоссийской паспорт
+pусский номер паспорта
+паспорт#
+паспортid#
+номер паспорта
+номерпаспорта#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_saudi_arabia_national_id
+Identification Card
+I card number
+ID number
+الوطنية الهوية بطاقة رقم
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_singapore_nric
+National Registration Identity Card
+Identity Card Number
+NRIC
+IC
+Foreign Identification Number
+FIN
+身份证
+身份證
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_slovakia_eu_driver's_license_number
+vodičský preukaz
+vodičské preukazy
+vodičského preukazu
+vodičských preukazov
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_slovakia_eu_national_id_card
+azonosító szám
+birth number
+číslo národnej identifikačnej karty
+číslo občianského preukazu
+daňové číslo
+id number
+identification no
+identification number
+identifikačná karta č
+identifikačné číslo
+identity card no
+identity card number
+národná identifikačná značka č
+national number
+nationalnumber#
+nemzeti személyazonosító igazolvány
+personalidnumber#
+rč
+rodne cislo
+rodné číslo
+social security number
+ssn#
+ssn
+személyi igazolvány szám
+személyi igazolvány száma
+személyigazolvány szám
+tax file no
+tax file number
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_slovakia_eu_passport_number
+číslo pasu
+čísla pasov
+pas č.
+Passeport n°
+n° Passeport
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_slovenia_eu_driver's_license_number
+vozniško dovoljenje
+vozniška številka licence
+vozniških dovoljenj
+številka vozniškega dovoljenja
+številke vozniških dovoljenj
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_slovenia_eu_national_id_card
+edinstvena številka glavnega državljana
+emšo
+enotna maticna številka obcana
+id card
+identification number
+identifikacijska številka
+identity card
+nacionalna id
+nacionalni potni list
+national id
+osebna izkaznica
+osebni koda
+osebni ne
+osebni številka
+personal code
+personal number
+personal numeric code
+številka državljana
+unique citizen number
+unique id number
+unique identity number
+unique master citizen number
+unique registration number
+uniqueidentityno #
+uniqueidentityno#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_slovenia_eu_passport_number
+številka potnega lista
+potek veljavnosti
+potni list#
+datum rojstva
+potni list
+številke potnih listov
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_slovenia_eu_tax_file_number
+davčna številka
+identifikacijska številka davka
+številka davčne datoteke
+tax file no
+tax file number
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_south_korea_resident_number
+National ID card
+Citizen's Registration Number
+Jumin deungnok beonho
+RRN
+주민등록번호
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_spain_eu_driver's_license_number
+permiso de conducción
+permiso conducción
+licencia de conducir
+licencia conducir
+permiso conducir
+permiso de conducir
+permisos de conducir
+permisos conducir
+carnet conducir
+carnet de conducir
+licencia de manejo
+licencia manejo
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_spain_eu_national_id_card
+carné de identidad
+dni#
+dni
+dninúmero#
+documento nacional de identidad
+identidad único
+identidadúnico#
+insurance number
+national identification number
+national identity
+nationalid#
+nationalidno#
+nie#
+nie
+nienúmero#
+número de identificación
+número nacional identidad
+personal identification number
+personal identity no
+unique identity number
+uniqueid#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keywords_spain_eu_passport_number
+libreta pasaporte
+número pasaporte
+españa pasaporte
+números de pasaporte
+número de pasaporte
+números pasaporte
+pasaporte no
+Passeport n°
+n° Passeport
+pasaporte no.
+pasaporte n°
+spain passport
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_spain_eu_passport_number
+ssn
+ssn#
+socialsecurityno
+social security no
+social security number
+número de la seguridad social
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_spain_eu_tax_file_number
+cif
+cifid#
+cifnúmero#
+número de contribuyente
+número de identificación fiscal
+número de impuesto corporativo
+spanishcifid#
+spanishcifid
+spanishcifno#
+spanishcifno
+tax file no
+tax file number
+tax id
+tax identification no
+tax identification number
+tax no#
+tax no
+tax number
+tax registration number
+taxid#
+taxidno#
+taxidnumber#
+taxno#
+taxnumber#
+taxnumber
+tin id
+tin no
+tin#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_driver's_license_number
+driverlic
+driverlics
+driverlicense
+driverlicenses
+driverlicence
+driverlicences
+driver lic
+driver lics
+driver license
+driver licenses
+driver licence
+driver licences
+driverslic
+driverslics
+driverslicence
+driverslicences
+driverslicense
+driverslicenses
+drivers lic
+drivers lics
+drivers license
+drivers licenses
+drivers licence
+drivers licences
+driver'lic
+driver'lics
+driver'license
+driver'licenses
+driver'licence
+driver'licences
+driver' lic
+driver' lics
+driver' license
+driver' licenses
+driver' licence
+driver' licences
+driver'slic
+driver'slics
+driver'slicense
+driver'slicenses
+driver'slicence
+driver'slicences
+driver's lic
+driver's lics
+driver's license
+driver's licenses
+driver's licence
+driver's licences
+dl#
+dls#
+driverlic#
+driverlics#
+driverlicense#
+driverlicenses#
+driverlicence#
+driverlicences#
+driver lic#
+driver lics#
+driver license#
+driver licenses#
+driver licences#
+driverslic#
+driverslics#
+driverslicense#
+driverslicenses#
+driverslicence#
+driverslicences#
+drivers lic#
+drivers lics#
+drivers license#
+drivers licenses#
+drivers licence#
+drivers licences#
+driver'lic#
+driver'lics#
+driver'license#
+driver'licenses#
+driver'licence#
+driver'licences#
+driver' lic#
+driver' lics#
+driver' license#
+driver' licenses#
+driver' licence#
+driver' licences#
+driver'slic#
+driver'slics#
+driver'slicense#
+driver'slicenses#
+driver'slicence#
+driver'slicences#
+driver's lic#
+driver's lics#
+driver's license#
+driver's licenses#
+driver's licence#
+driver's licences#
+driving licence
+driving license
+dlno#
+driv lic
+driv licen
+driv license
+driv licenses
+driv licence
+driv licences
+driver licen
+drivers licen
+driver's licen
+driving lic
+driving licen
+driving licenses
+driving licence
+driving licences
+driving permit
+dl no
+dlno
+dl number
+Keywords_sweden_eu_driver's_license_number
+ajokortti
+permis de conducere
+ajokortin numero
+kuljettajat lic.
+drivere lic.
+körkort
+numărul permisului de conducere
+שאָפער דערלויבעניש נומער
+förare lic.
+דריווערס דערלויבעניש
+körkortsnummer
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords_eu_passport_number
+passport#
+passport #
+passportid
+passports
+passportno
+passport no
+passportnumber
+passport number
+passportnumbers
+passport numbers
+Keyword_sweden_passport
+alien registration card
+g3 processing fees
+multiple entry
+Numéro de passeport
+passeport n °
+passeport non
+passeport #
+passeport#
+passeportnon
+passeportn °
+passnummer
+pass nr
+schengen visa
+schengen visas
+single entry
+sverige pass
+visa requirements
+visa processing
+visa type
+Keywords_eu_passport_date
+date of issue
+date of expiry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_swift
+international organization for standardization 9362
+iso 9362
+iso9362
+swift#
+swiftcode
+swiftnumber
+swiftroutingnumber
+swift code
+swift number #
+swift routing number
+bic number
+bic code
+bic #
+bic#
+bank identifier code
+Organisation internationale de normalisation 9362
+rapide #
+code SWIFT
+le numéro de swift
+swift numéro d'acheminement
+le numéro BIC
+# BIC
+code identificateur de banque
+SWIFTコード
+SWIFT番号
+BIC番号
+BICコード
+SWIFT コード
+SWIFT 番号
+BIC 番号
+BIC コード
+金融機関識別コード
+金融機関コード
+銀行コード
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_swiss_ssn_AHV_number
+ahv
+ssn
+pid
+insurance number
+personalidno#
+social security number
+personal id number
+personal identification no.
+insuranceno#
+uniqueidno#
+unique identification no.
+avs number
+personal identity no versicherungsnummer
+identifikationsnummer
+einzigartige identität nicht
+sozialversicherungsnummer
+identification personnelle id
+numéro de sécurité sociale
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_taiwan_national_id
+身份證字號
+身份證
+身份證號碼
+身份證號
+身分證字號
+身分證
+身分證號碼
+身份證號
+身分證統一編號
+國民身分證統一編號
+簽名
+蓋章
+簽名或蓋章
+簽章
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_taiwan_passport
+ROC passport number
+Passport number
+Passport no
+Passport Num
+Passport #
+护照
+中華民國護照
+Zhōnghuá Mínguó hùzhào
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_taiwan_resident_certificate
+Resident Certificate
+Resident Cert
+Resident Cert.
+Identification card
+Alien Resident Certificate
+ARC
+Taiwan Area Resident Certificate
+TARC
+居留證
+外僑居留證
+台灣地區居留證
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword_ukraine_passport_domestic
+ukraine passport
+passport number
+passport no
+паспорт України
+номер паспорта
+персональний
+</t>
+  </si>
+  <si>
+    <t>Keyword_ukraine_passport_international
+ukraine passport
+passport number
+passport no
+паспорт України
+номер паспорта</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10307,13 +16074,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -10328,10 +16109,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10670,7 +16457,7 @@
   <dimension ref="A1:D197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13368,12 +19155,2703 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13BD596-1229-466F-AE99-F135AB27B17F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="52.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="186.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>160</v>
+      </c>
+      <c r="B86" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" t="s">
+        <v>167</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>176</v>
+      </c>
+      <c r="B93" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>178</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>180</v>
+      </c>
+      <c r="B96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" t="s">
+        <v>71</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>181</v>
+      </c>
+      <c r="B97" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>183</v>
+      </c>
+      <c r="B98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>185</v>
+      </c>
+      <c r="B99" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>187</v>
+      </c>
+      <c r="B100" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>189</v>
+      </c>
+      <c r="B101" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" t="s">
+        <v>192</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>193</v>
+      </c>
+      <c r="B103" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>195</v>
+      </c>
+      <c r="B104" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>197</v>
+      </c>
+      <c r="B105" t="s">
+        <v>198</v>
+      </c>
+      <c r="C105" t="s">
+        <v>199</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>200</v>
+      </c>
+      <c r="B106" t="s">
+        <v>201</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>202</v>
+      </c>
+      <c r="B107" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" t="s">
+        <v>203</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>204</v>
+      </c>
+      <c r="B108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>206</v>
+      </c>
+      <c r="B109" t="s">
+        <v>207</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>210</v>
+      </c>
+      <c r="B110" t="s">
+        <v>186</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>208</v>
+      </c>
+      <c r="B111" t="s">
+        <v>209</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>211</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>213</v>
+      </c>
+      <c r="B113" t="s">
+        <v>214</v>
+      </c>
+      <c r="C113" t="s">
+        <v>215</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>212</v>
+      </c>
+      <c r="B114" t="s">
+        <v>100</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>216</v>
+      </c>
+      <c r="B115" t="s">
+        <v>217</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>218</v>
+      </c>
+      <c r="B116" t="s">
+        <v>219</v>
+      </c>
+      <c r="C116" t="s">
+        <v>86</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>220</v>
+      </c>
+      <c r="B117" t="s">
+        <v>221</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>222</v>
+      </c>
+      <c r="B118" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>223</v>
+      </c>
+      <c r="B119" t="s">
+        <v>214</v>
+      </c>
+      <c r="C119" t="s">
+        <v>215</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>224</v>
+      </c>
+      <c r="B120" t="s">
+        <v>225</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>226</v>
+      </c>
+      <c r="B121" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>228</v>
+      </c>
+      <c r="B122" t="s">
+        <v>229</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>230</v>
+      </c>
+      <c r="B123" t="s">
+        <v>231</v>
+      </c>
+      <c r="C123" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>232</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>233</v>
+      </c>
+      <c r="B125" t="s">
+        <v>234</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>235</v>
+      </c>
+      <c r="B126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>236</v>
+      </c>
+      <c r="B127" t="s">
+        <v>237</v>
+      </c>
+      <c r="C127" t="s">
+        <v>238</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>239</v>
+      </c>
+      <c r="B128" t="s">
+        <v>240</v>
+      </c>
+      <c r="C128" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>241</v>
+      </c>
+      <c r="B129" t="s">
+        <v>242</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>243</v>
+      </c>
+      <c r="B130" t="s">
+        <v>244</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>245</v>
+      </c>
+      <c r="B131" t="s">
+        <v>246</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>247</v>
+      </c>
+      <c r="B132" t="s">
+        <v>248</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>249</v>
+      </c>
+      <c r="B133" t="s">
+        <v>250</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>251</v>
+      </c>
+      <c r="B134" t="s">
+        <v>49</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>252</v>
+      </c>
+      <c r="B135" t="s">
+        <v>74</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>172</v>
+      </c>
+      <c r="B136" t="s">
+        <v>173</v>
+      </c>
+      <c r="C136" t="s">
+        <v>171</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>367</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>365</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>253</v>
+      </c>
+      <c r="B141" t="s">
+        <v>254</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>255</v>
+      </c>
+      <c r="B142" t="s">
+        <v>256</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>257</v>
+      </c>
+      <c r="B143" t="s">
+        <v>258</v>
+      </c>
+      <c r="C143" t="s">
+        <v>259</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>260</v>
+      </c>
+      <c r="B144" t="s">
+        <v>74</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>261</v>
+      </c>
+      <c r="B145" t="s">
+        <v>262</v>
+      </c>
+      <c r="C145" t="s">
+        <v>263</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>264</v>
+      </c>
+      <c r="B146" t="s">
+        <v>265</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>266</v>
+      </c>
+      <c r="B147" t="s">
+        <v>267</v>
+      </c>
+      <c r="C147" t="s">
+        <v>74</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>268</v>
+      </c>
+      <c r="B148" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>269</v>
+      </c>
+      <c r="B149" t="s">
+        <v>270</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>271</v>
+      </c>
+      <c r="B150" t="s">
+        <v>272</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>273</v>
+      </c>
+      <c r="B151" t="s">
+        <v>274</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>275</v>
+      </c>
+      <c r="B152" t="s">
+        <v>276</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>279</v>
+      </c>
+      <c r="B153" t="s">
+        <v>280</v>
+      </c>
+      <c r="C153" t="s">
+        <v>281</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>277</v>
+      </c>
+      <c r="B154" t="s">
+        <v>278</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>282</v>
+      </c>
+      <c r="B155" t="s">
+        <v>283</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>284</v>
+      </c>
+      <c r="B156" t="s">
+        <v>285</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>286</v>
+      </c>
+      <c r="B157" t="s">
+        <v>34</v>
+      </c>
+      <c r="C157" t="s">
+        <v>287</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>288</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>289</v>
+      </c>
+      <c r="B159" t="s">
+        <v>290</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>293</v>
+      </c>
+      <c r="B160" t="s">
+        <v>294</v>
+      </c>
+      <c r="C160" t="s">
+        <v>295</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>291</v>
+      </c>
+      <c r="B161" t="s">
+        <v>292</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>296</v>
+      </c>
+      <c r="B162" t="s">
+        <v>48</v>
+      </c>
+      <c r="C162" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>299</v>
+      </c>
+      <c r="B163" t="s">
+        <v>300</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>301</v>
+      </c>
+      <c r="B164" t="s">
+        <v>302</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>297</v>
+      </c>
+      <c r="B165" t="s">
+        <v>298</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>303</v>
+      </c>
+      <c r="B166" t="s">
+        <v>304</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>305</v>
+      </c>
+      <c r="B167" t="s">
+        <v>306</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>309</v>
+      </c>
+      <c r="B168" t="s">
+        <v>308</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>307</v>
+      </c>
+      <c r="B169" t="s">
+        <v>308</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>310</v>
+      </c>
+      <c r="B170" t="s">
+        <v>311</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>312</v>
+      </c>
+      <c r="B171" t="s">
+        <v>313</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>314</v>
+      </c>
+      <c r="B172" t="s">
+        <v>315</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>316</v>
+      </c>
+      <c r="B173" t="s">
+        <v>95</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>317</v>
+      </c>
+      <c r="B174" t="s">
+        <v>318</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>319</v>
+      </c>
+      <c r="B175" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" t="s">
+        <v>320</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>321</v>
+      </c>
+      <c r="B176" t="s">
+        <v>322</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>323</v>
+      </c>
+      <c r="B177" t="s">
+        <v>324</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>325</v>
+      </c>
+      <c r="B178" t="s">
+        <v>194</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>328</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>326</v>
+      </c>
+      <c r="B180" t="s">
+        <v>327</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>329</v>
+      </c>
+      <c r="B181" t="s">
+        <v>330</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>331</v>
+      </c>
+      <c r="B182" t="s">
+        <v>332</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>333</v>
+      </c>
+      <c r="B183" t="s">
+        <v>334</v>
+      </c>
+      <c r="C183" t="s">
+        <v>335</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>336</v>
+      </c>
+      <c r="B184" t="s">
+        <v>337</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>338</v>
+      </c>
+      <c r="B185" t="s">
+        <v>339</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>340</v>
+      </c>
+      <c r="B186" t="s">
+        <v>33</v>
+      </c>
+      <c r="C186" t="s">
+        <v>34</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>353</v>
+      </c>
+      <c r="B187" t="s">
+        <v>49</v>
+      </c>
+      <c r="C187" t="s">
+        <v>71</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>341</v>
+      </c>
+      <c r="B188" t="s">
+        <v>342</v>
+      </c>
+      <c r="C188" t="s">
+        <v>343</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>344</v>
+      </c>
+      <c r="B189" t="s">
+        <v>345</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>346</v>
+      </c>
+      <c r="B190" t="s">
+        <v>680</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>347</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>348</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>349</v>
+      </c>
+      <c r="B193" t="s">
+        <v>350</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>351</v>
+      </c>
+      <c r="B194" t="s">
+        <v>352</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>354</v>
+      </c>
+      <c r="B195" t="s">
+        <v>49</v>
+      </c>
+      <c r="C195" t="s">
+        <v>49</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>355</v>
+      </c>
+      <c r="B196" t="s">
+        <v>356</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>361</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D198">
+    <sortCondition ref="A1:A198"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>